--- a/PERCENTAGES.xlsx
+++ b/PERCENTAGES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidadevigo-my.sharepoint.com/personal/andres_cristobal_uvigo_gal/Documents/Escritorio/andres/Programacion/PebDec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{7455DC20-1FC5-4017-82D9-5EFF45FD0BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{180531EF-427B-4128-8200-1F34613C25DD}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{7455DC20-1FC5-4017-82D9-5EFF45FD0BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DC0F86A-4C29-413F-A315-72B6750F1EDE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F02623DE-FFFD-4E1A-BCB9-295B224347AB}"/>
+    <workbookView minimized="1" xWindow="915" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{F02623DE-FFFD-4E1A-BCB9-295B224347AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SAM</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>XURXO</t>
+  </si>
+  <si>
+    <t>MARIA LIA NAPOLI</t>
+  </si>
+  <si>
+    <t>ALEJANDRO PEÑA VILLASANA</t>
   </si>
 </sst>
 </file>
@@ -448,15 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF354275-0103-4383-9C60-02604E2B749F}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1013,6 +1019,112 @@
         <v>8.7099999999999937</v>
       </c>
     </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2">
+        <v>40</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
+        <v>35</v>
+      </c>
+      <c r="K17" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4">
+        <f>ABS(B17-B$2)</f>
+        <v>1.7199999999999989</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" ref="C18:K18" si="7">ABS(C17-C$2)</f>
+        <v>10.350000000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="7"/>
+        <v>2.9999999999999361E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="7"/>
+        <v>5.259999999999998</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="7"/>
+        <v>18.82</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="7"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="7"/>
+        <v>19.400000000000006</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="7"/>
+        <v>7.23</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="7"/>
+        <v>3.0700000000000003</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="7"/>
+        <v>8.7099999999999937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
